--- a/Doo-Doc/Nueva Version Victus/Modelo dominio Enriquesido Reserva-VistusResidencias.xlsx
+++ b/Doo-Doc/Nueva Version Victus/Modelo dominio Enriquesido Reserva-VistusResidencias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\DOO 2024 BD\DOO\victus-doc\Doo-Doc\Nueva Version Victus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B7059C-C014-4A57-B1CA-B0A368FBF328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1CE107-2499-4A36-9F07-C31DE8406DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="2" xr2:uid="{CE244A66-670B-491B-9304-41B91E991E26}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="4" xr2:uid="{CE244A66-670B-491B-9304-41B91E991E26}"/>
   </bookViews>
   <sheets>
     <sheet name="Valores" sheetId="1" r:id="rId1"/>
@@ -2790,15 +2790,60 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2832,52 +2877,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3375,19 +3375,19 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="61"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -3411,52 +3411,52 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>61</v>
       </c>
@@ -3477,7 +3477,7 @@
       <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3488,20 +3488,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76AED8CF-32F6-460C-B344-4096984F204E}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="8"/>
+    <col min="1" max="1" width="21.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
@@ -3511,7 +3511,7 @@
       <c r="C1" s="62"/>
       <c r="D1" s="63"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="40" t="s">
         <v>51</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>Reservas</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="40" t="s">
         <v>53</v>
       </c>
@@ -3552,7 +3552,7 @@
       </c>
       <c r="D4" s="65"/>
     </row>
-    <row r="5" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="40" t="s">
         <v>52</v>
       </c>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="D5" s="65"/>
     </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="40" t="s">
         <v>89</v>
       </c>
@@ -3611,103 +3611,103 @@
       <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.28515625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="79.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.33203125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="79.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="8" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="94.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="132.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="46.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="50.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="66.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="52.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.42578125" style="8"/>
+    <col min="17" max="17" width="94.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="132.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="46.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="50.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="66.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="52.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="86" t="str">
+      <c r="B2" s="72" t="str">
         <f>'[1]Listado Objetos de Dominio'!A5</f>
         <v>Administrador</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-    </row>
-    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="87" t="str">
+      <c r="B3" s="73" t="str">
         <f>'[1]Listado Objetos de Dominio'!B5</f>
         <v xml:space="preserve"> Objeto de dominio que representa el Administrador encarcador de hacer CRUD a sonas comunes y Usuarios(residentes) , tambien encargado de cancelar reservas.</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>13</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>Reponsabilidad 4</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>29</v>
       </c>
@@ -3821,7 +3821,7 @@
       <c r="T5" s="30"/>
       <c r="U5" s="31"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>131</v>
       </c>
@@ -3862,7 +3862,7 @@
       <c r="T6" s="30"/>
       <c r="U6" s="31"/>
     </row>
-    <row r="7" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>132</v>
       </c>
@@ -3905,7 +3905,7 @@
       <c r="T7" s="30"/>
       <c r="U7" s="31"/>
     </row>
-    <row r="8" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>133</v>
       </c>
@@ -3952,7 +3952,7 @@
       <c r="T8" s="30"/>
       <c r="U8" s="31"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>130</v>
       </c>
@@ -3979,7 +3979,7 @@
       <c r="T9" s="30"/>
       <c r="U9" s="31"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
         <v>130</v>
       </c>
@@ -4006,7 +4006,7 @@
       <c r="T10" s="30"/>
       <c r="U10" s="31"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
         <v>82</v>
       </c>
@@ -4033,17 +4033,17 @@
       <c r="T11" s="30"/>
       <c r="U11" s="31"/>
     </row>
-    <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D12" s="58"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="88" t="s">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="89"/>
-      <c r="C13" s="90"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B13" s="75"/>
+      <c r="C13" s="76"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="32" t="s">
         <v>35</v>
       </c>
@@ -4054,66 +4054,66 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="91" t="s">
+    <row r="15" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="93" t="s">
+      <c r="B15" s="79" t="s">
         <v>87</v>
       </c>
       <c r="C15" s="37" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="92"/>
-      <c r="B16" s="94"/>
+    <row r="16" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="78"/>
+      <c r="B16" s="80"/>
       <c r="C16" s="37" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:19" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="95" t="s">
+    <row r="17" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="1:19" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="67"/>
-      <c r="C18" s="67" t="s">
+      <c r="B18" s="82"/>
+      <c r="C18" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67" t="s">
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67" t="s">
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="67" t="s">
+      <c r="L18" s="82"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="82"/>
+      <c r="O18" s="82"/>
+      <c r="P18" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="67" t="s">
+      <c r="Q18" s="82"/>
+      <c r="R18" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="S18" s="69"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="96"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
+      <c r="S18" s="96"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="83"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
       <c r="H19" s="38" t="s">
         <v>42</v>
       </c>
@@ -4126,12 +4126,12 @@
       <c r="K19" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="L19" s="68" t="s">
+      <c r="L19" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="M19" s="68"/>
-      <c r="N19" s="68"/>
-      <c r="O19" s="68"/>
+      <c r="M19" s="84"/>
+      <c r="N19" s="84"/>
+      <c r="O19" s="84"/>
       <c r="P19" s="38" t="s">
         <v>44</v>
       </c>
@@ -4145,93 +4145,93 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="75" t="s">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="76"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
       <c r="H20" s="13"/>
       <c r="I20" s="40"/>
       <c r="J20" s="12"/>
       <c r="K20" s="40"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="77"/>
+      <c r="L20" s="92"/>
+      <c r="M20" s="92"/>
+      <c r="N20" s="92"/>
+      <c r="O20" s="92"/>
       <c r="P20" s="13"/>
       <c r="Q20" s="13"/>
       <c r="R20" s="13"/>
       <c r="S20" s="14"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="78" t="s">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="79"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
       <c r="H21" s="43"/>
       <c r="I21" s="41"/>
       <c r="J21" s="42"/>
       <c r="K21" s="44"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="70"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="85"/>
+      <c r="N21" s="85"/>
+      <c r="O21" s="85"/>
       <c r="P21" s="29"/>
       <c r="Q21" s="45"/>
       <c r="R21" s="45"/>
       <c r="S21" s="46"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="71" t="s">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="72"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
       <c r="H22" s="48"/>
       <c r="I22" s="49"/>
       <c r="J22" s="47"/>
       <c r="K22" s="50"/>
-      <c r="L22" s="74"/>
-      <c r="M22" s="74"/>
-      <c r="N22" s="74"/>
-      <c r="O22" s="74"/>
+      <c r="L22" s="89"/>
+      <c r="M22" s="89"/>
+      <c r="N22" s="89"/>
+      <c r="O22" s="89"/>
       <c r="P22" s="30"/>
       <c r="Q22" s="51"/>
       <c r="R22" s="51"/>
       <c r="S22" s="52"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="81" t="s">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="82"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
       <c r="H23" s="54"/>
       <c r="I23" s="55"/>
       <c r="J23" s="53"/>
       <c r="K23" s="54"/>
-      <c r="L23" s="84"/>
-      <c r="M23" s="84"/>
-      <c r="N23" s="84"/>
-      <c r="O23" s="84"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="70"/>
+      <c r="O23" s="70"/>
       <c r="P23" s="31"/>
       <c r="Q23" s="56"/>
       <c r="R23" s="56"/>
@@ -4239,6 +4239,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C18:G19"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:O18"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="L23:O23"/>
@@ -4255,15 +4264,6 @@
     <mergeCell ref="L22:O22"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:G20"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C18:G19"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="L19:O19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{22FD3DF1-D2C1-4869-8D74-1C6B67C6CA9F}"/>
@@ -4301,107 +4301,107 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B87E743-BFE3-415C-A07F-E9D05CC8A77D}">
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.28515625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="79.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.33203125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="79.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="8" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="94.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="132.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="46.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="50.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="66.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="52.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.42578125" style="8"/>
+    <col min="17" max="17" width="94.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="132.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="46.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="50.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="66.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="52.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="86" t="str">
+      <c r="B2" s="72" t="str">
         <f>'Listado Objetos de Dominio'!A5</f>
         <v>Residente</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-    </row>
-    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="87" t="str">
+      <c r="B3" s="73" t="str">
         <f>'[1]Listado Objetos de Dominio'!B4</f>
         <v>Objeto de dominio que representa a cada una de las zonas comunes que se encuentran dentro de un conjunto residencial para que los residentes puedan reservar esos espacios y porder usarlos.</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>13</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>Reponsabilidad 4</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>29</v>
       </c>
@@ -4515,7 +4515,7 @@
       <c r="T5" s="30"/>
       <c r="U5" s="31"/>
     </row>
-    <row r="6" spans="1:21" ht="54" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="69" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>63</v>
       </c>
@@ -4562,7 +4562,7 @@
       <c r="T6" s="30"/>
       <c r="U6" s="31"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>94</v>
       </c>
@@ -4587,7 +4587,7 @@
       <c r="T7" s="30"/>
       <c r="U7" s="31"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>95</v>
       </c>
@@ -4632,7 +4632,7 @@
       <c r="T8" s="30"/>
       <c r="U8" s="31"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>76</v>
       </c>
@@ -4673,7 +4673,7 @@
       <c r="T9" s="30"/>
       <c r="U9" s="31"/>
     </row>
-    <row r="10" spans="1:21" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="69" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
         <v>98</v>
       </c>
@@ -4714,7 +4714,7 @@
       <c r="T10" s="30"/>
       <c r="U10" s="31"/>
     </row>
-    <row r="11" spans="1:21" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="69" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
         <v>101</v>
       </c>
@@ -4755,7 +4755,7 @@
       <c r="T11" s="30"/>
       <c r="U11" s="31"/>
     </row>
-    <row r="12" spans="1:21" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
         <v>103</v>
       </c>
@@ -4800,7 +4800,7 @@
       <c r="T12" s="30"/>
       <c r="U12" s="31"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
         <v>82</v>
       </c>
@@ -4827,17 +4827,17 @@
       <c r="T13" s="30"/>
       <c r="U13" s="31"/>
     </row>
-    <row r="14" spans="1:21" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D14" s="58"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="97" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="98"/>
       <c r="C15" s="99"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="32" t="s">
         <v>35</v>
       </c>
@@ -4848,66 +4848,66 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="100" t="s">
         <v>104</v>
       </c>
-      <c r="B17" s="93" t="s">
+      <c r="B17" s="79" t="s">
         <v>105</v>
       </c>
       <c r="C17" s="37" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="101"/>
-      <c r="B18" s="94"/>
+      <c r="B18" s="80"/>
       <c r="C18" s="37" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="95" t="s">
+    <row r="19" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="67"/>
-      <c r="C20" s="67" t="s">
+      <c r="B20" s="82"/>
+      <c r="C20" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67" t="s">
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67" t="s">
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="67"/>
-      <c r="O20" s="67"/>
-      <c r="P20" s="67" t="s">
+      <c r="L20" s="82"/>
+      <c r="M20" s="82"/>
+      <c r="N20" s="82"/>
+      <c r="O20" s="82"/>
+      <c r="P20" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="Q20" s="67"/>
-      <c r="R20" s="67" t="s">
+      <c r="Q20" s="82"/>
+      <c r="R20" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="S20" s="69"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="96"/>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
+      <c r="S20" s="96"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="83"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
       <c r="H21" s="38" t="s">
         <v>42</v>
       </c>
@@ -4920,12 +4920,12 @@
       <c r="K21" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="68" t="s">
+      <c r="L21" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="M21" s="68"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="68"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="84"/>
+      <c r="O21" s="84"/>
       <c r="P21" s="38" t="s">
         <v>44</v>
       </c>
@@ -4939,93 +4939,93 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="75" t="s">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="76"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
       <c r="H22" s="13"/>
       <c r="I22" s="40"/>
       <c r="J22" s="12"/>
       <c r="K22" s="40"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="77"/>
-      <c r="N22" s="77"/>
-      <c r="O22" s="77"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="92"/>
+      <c r="N22" s="92"/>
+      <c r="O22" s="92"/>
       <c r="P22" s="13"/>
       <c r="Q22" s="13"/>
       <c r="R22" s="13"/>
       <c r="S22" s="14"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="78" t="s">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="79"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="95"/>
       <c r="H23" s="43"/>
       <c r="I23" s="41"/>
       <c r="J23" s="42"/>
       <c r="K23" s="44"/>
-      <c r="L23" s="70"/>
-      <c r="M23" s="70"/>
-      <c r="N23" s="70"/>
-      <c r="O23" s="70"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="85"/>
+      <c r="N23" s="85"/>
+      <c r="O23" s="85"/>
       <c r="P23" s="29"/>
       <c r="Q23" s="45"/>
       <c r="R23" s="45"/>
       <c r="S23" s="46"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="71" t="s">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="72"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
       <c r="H24" s="48"/>
       <c r="I24" s="49"/>
       <c r="J24" s="47"/>
       <c r="K24" s="50"/>
-      <c r="L24" s="74"/>
-      <c r="M24" s="74"/>
-      <c r="N24" s="74"/>
-      <c r="O24" s="74"/>
+      <c r="L24" s="89"/>
+      <c r="M24" s="89"/>
+      <c r="N24" s="89"/>
+      <c r="O24" s="89"/>
       <c r="P24" s="30"/>
       <c r="Q24" s="51"/>
       <c r="R24" s="51"/>
       <c r="S24" s="52"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="81" t="s">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="82"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
       <c r="H25" s="54"/>
       <c r="I25" s="55"/>
       <c r="J25" s="53"/>
       <c r="K25" s="54"/>
-      <c r="L25" s="84"/>
-      <c r="M25" s="84"/>
-      <c r="N25" s="84"/>
-      <c r="O25" s="84"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="70"/>
+      <c r="N25" s="70"/>
+      <c r="O25" s="70"/>
       <c r="P25" s="31"/>
       <c r="Q25" s="56"/>
       <c r="R25" s="56"/>
@@ -5033,12 +5033,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="B3:Q3"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="L24:O24"/>
     <mergeCell ref="R20:S20"/>
     <mergeCell ref="L21:O21"/>
     <mergeCell ref="A22:B22"/>
@@ -5049,15 +5052,12 @@
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="K20:O20"/>
     <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="B3:Q3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{BED4E614-C10D-4EB2-A14E-99F7239FF1AB}"/>
@@ -5087,103 +5087,103 @@
       <selection activeCell="B12" sqref="B12:Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.28515625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="79.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.33203125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="79.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="8" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="94.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="132.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="46.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="50.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="66.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="52.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.42578125" style="8"/>
+    <col min="17" max="17" width="94.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="132.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="46.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="50.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="66.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="52.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="86" t="str">
+      <c r="B2" s="72" t="str">
         <f>'[2]Listado Objetos de Dominio'!A3</f>
         <v>Residente</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-    </row>
-    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="87" t="str">
+      <c r="B3" s="73" t="str">
         <f>'[2]Listado Objetos de Dominio'!B3</f>
         <v>Objeto de dominio que representa a un residente que podrá realizar una reserva de una zona común dentro de un conjunto residencial.</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>13</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>Reponsabilidad 4</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>29</v>
       </c>
@@ -5297,7 +5297,7 @@
       <c r="T5" s="30"/>
       <c r="U5" s="31"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>63</v>
       </c>
@@ -5342,7 +5342,7 @@
       <c r="T6" s="30"/>
       <c r="U6" s="31"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>84</v>
       </c>
@@ -5387,7 +5387,7 @@
       <c r="T7" s="30"/>
       <c r="U7" s="31"/>
     </row>
-    <row r="8" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>120</v>
       </c>
@@ -5430,7 +5430,7 @@
       <c r="T8" s="30"/>
       <c r="U8" s="31"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>122</v>
       </c>
@@ -5471,7 +5471,7 @@
       <c r="T9" s="30"/>
       <c r="U9" s="31"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
         <v>124</v>
       </c>
@@ -5512,7 +5512,7 @@
       <c r="T10" s="30"/>
       <c r="U10" s="31"/>
     </row>
-    <row r="11" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
         <v>79</v>
       </c>
@@ -5559,7 +5559,7 @@
       <c r="T11" s="30"/>
       <c r="U11" s="31"/>
     </row>
-    <row r="12" spans="1:21" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
         <v>85</v>
       </c>
@@ -5602,7 +5602,7 @@
       <c r="T12" s="30"/>
       <c r="U12" s="31"/>
     </row>
-    <row r="13" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
         <v>127</v>
       </c>
@@ -5643,7 +5643,7 @@
       <c r="T13" s="30"/>
       <c r="U13" s="31"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
         <v>82</v>
       </c>
@@ -5670,15 +5670,15 @@
       <c r="T14" s="30"/>
       <c r="U14" s="31"/>
     </row>
-    <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="88" t="s">
+    <row r="15" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="89"/>
-      <c r="C16" s="90"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="75"/>
+      <c r="C16" s="76"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="32" t="s">
         <v>35</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="35" t="s">
         <v>70</v>
       </c>
@@ -5700,48 +5700,48 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="95" t="s">
+    <row r="19" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="67"/>
-      <c r="C20" s="67" t="s">
+      <c r="B20" s="82"/>
+      <c r="C20" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67" t="s">
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67" t="s">
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="67"/>
-      <c r="O20" s="67"/>
-      <c r="P20" s="67" t="s">
+      <c r="L20" s="82"/>
+      <c r="M20" s="82"/>
+      <c r="N20" s="82"/>
+      <c r="O20" s="82"/>
+      <c r="P20" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="Q20" s="67"/>
-      <c r="R20" s="67" t="s">
+      <c r="Q20" s="82"/>
+      <c r="R20" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="S20" s="69"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="96"/>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
+      <c r="S20" s="96"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="83"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
       <c r="H21" s="38" t="s">
         <v>42</v>
       </c>
@@ -5754,12 +5754,12 @@
       <c r="K21" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="68" t="s">
+      <c r="L21" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="M21" s="68"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="68"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="84"/>
+      <c r="O21" s="84"/>
       <c r="P21" s="38" t="s">
         <v>44</v>
       </c>
@@ -5773,93 +5773,93 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="75" t="s">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="76"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
       <c r="H22" s="13"/>
       <c r="I22" s="40"/>
       <c r="J22" s="12"/>
       <c r="K22" s="40"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="77"/>
-      <c r="N22" s="77"/>
-      <c r="O22" s="77"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="92"/>
+      <c r="N22" s="92"/>
+      <c r="O22" s="92"/>
       <c r="P22" s="13"/>
       <c r="Q22" s="13"/>
       <c r="R22" s="13"/>
       <c r="S22" s="14"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="78" t="s">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="79"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="95"/>
       <c r="H23" s="43"/>
       <c r="I23" s="41"/>
       <c r="J23" s="42"/>
       <c r="K23" s="44"/>
-      <c r="L23" s="70"/>
-      <c r="M23" s="70"/>
-      <c r="N23" s="70"/>
-      <c r="O23" s="70"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="85"/>
+      <c r="N23" s="85"/>
+      <c r="O23" s="85"/>
       <c r="P23" s="29"/>
       <c r="Q23" s="45"/>
       <c r="R23" s="45"/>
       <c r="S23" s="46"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="71" t="s">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="72"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
       <c r="H24" s="48"/>
       <c r="I24" s="49"/>
       <c r="J24" s="47"/>
       <c r="K24" s="50"/>
-      <c r="L24" s="74"/>
-      <c r="M24" s="74"/>
-      <c r="N24" s="74"/>
-      <c r="O24" s="74"/>
+      <c r="L24" s="89"/>
+      <c r="M24" s="89"/>
+      <c r="N24" s="89"/>
+      <c r="O24" s="89"/>
       <c r="P24" s="30"/>
       <c r="Q24" s="51"/>
       <c r="R24" s="51"/>
       <c r="S24" s="52"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="81" t="s">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="82"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
       <c r="H25" s="54"/>
       <c r="I25" s="55"/>
       <c r="J25" s="53"/>
       <c r="K25" s="54"/>
-      <c r="L25" s="84"/>
-      <c r="M25" s="84"/>
-      <c r="N25" s="84"/>
-      <c r="O25" s="84"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="70"/>
+      <c r="N25" s="70"/>
+      <c r="O25" s="70"/>
       <c r="P25" s="31"/>
       <c r="Q25" s="56"/>
       <c r="R25" s="56"/>
@@ -5867,16 +5867,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="B3:Q3"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="C20:G21"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:O20"/>
-    <mergeCell ref="P20:Q20"/>
     <mergeCell ref="R20:S20"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:G22"/>
@@ -5890,6 +5880,16 @@
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="C24:G24"/>
     <mergeCell ref="L24:O24"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="B3:Q3"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C20:G21"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:O20"/>
+    <mergeCell ref="P20:Q20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{1834B4AF-DFAD-4314-A69C-2620F9328F74}"/>
@@ -5919,103 +5919,103 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.28515625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="79.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.33203125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="79.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="8" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="94.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="132.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="46.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="50.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="66.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="52.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.42578125" style="8"/>
+    <col min="17" max="17" width="94.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="132.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="46.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="50.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="66.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="52.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="86" t="str">
+      <c r="B2" s="72" t="str">
         <f>'[1]Listado Objetos de Dominio'!A7</f>
         <v>Turno</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-    </row>
-    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="87" t="str">
+      <c r="B3" s="73" t="str">
         <f>'[1]Listado Objetos de Dominio'!B7</f>
         <v>Objeto de dominio que representa a cada Turno que esta programado con respecto al tiempo de uso según la zona comun y con respecto a la agenda disponible.</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>13</v>
       </c>
@@ -6084,7 +6084,7 @@
         <v>Reponsabilidad 4</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>29</v>
       </c>
@@ -6129,7 +6129,7 @@
       <c r="T5" s="30"/>
       <c r="U5" s="31"/>
     </row>
-    <row r="6" spans="1:21" ht="54" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>107</v>
       </c>
@@ -6176,7 +6176,7 @@
       <c r="T6" s="30"/>
       <c r="U6" s="31"/>
     </row>
-    <row r="7" spans="1:21" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="69" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>111</v>
       </c>
@@ -6217,7 +6217,7 @@
       <c r="T7" s="30"/>
       <c r="U7" s="31"/>
     </row>
-    <row r="8" spans="1:21" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="69" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>113</v>
       </c>
@@ -6258,7 +6258,7 @@
       <c r="T8" s="30"/>
       <c r="U8" s="31"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>115</v>
       </c>
@@ -6285,17 +6285,17 @@
       <c r="T9" s="30"/>
       <c r="U9" s="31"/>
     </row>
-    <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D10" s="58"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="88" t="s">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="89"/>
-      <c r="C11" s="90"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B11" s="75"/>
+      <c r="C11" s="76"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="32" t="s">
         <v>35</v>
       </c>
@@ -6306,66 +6306,66 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="91" t="s">
+    <row r="13" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="77" t="s">
         <v>116</v>
       </c>
-      <c r="B13" s="93" t="s">
+      <c r="B13" s="79" t="s">
         <v>117</v>
       </c>
       <c r="C13" s="37" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="92"/>
-      <c r="B14" s="94"/>
+    <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="78"/>
+      <c r="B14" s="80"/>
       <c r="C14" s="37" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="95" t="s">
+    <row r="15" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67" t="s">
+      <c r="B16" s="82"/>
+      <c r="C16" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67" t="s">
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67" t="s">
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67" t="s">
+      <c r="L16" s="82"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="82"/>
+      <c r="O16" s="82"/>
+      <c r="P16" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="67" t="s">
+      <c r="Q16" s="82"/>
+      <c r="R16" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="S16" s="69"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="96"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
+      <c r="S16" s="96"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="83"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
       <c r="H17" s="38" t="s">
         <v>42</v>
       </c>
@@ -6378,12 +6378,12 @@
       <c r="K17" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="L17" s="68" t="s">
+      <c r="L17" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="M17" s="68"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="68"/>
+      <c r="M17" s="84"/>
+      <c r="N17" s="84"/>
+      <c r="O17" s="84"/>
       <c r="P17" s="38" t="s">
         <v>44</v>
       </c>
@@ -6397,93 +6397,93 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="75" t="s">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="76"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
       <c r="H18" s="13"/>
       <c r="I18" s="40"/>
       <c r="J18" s="12"/>
       <c r="K18" s="40"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="77"/>
-      <c r="N18" s="77"/>
-      <c r="O18" s="77"/>
+      <c r="L18" s="92"/>
+      <c r="M18" s="92"/>
+      <c r="N18" s="92"/>
+      <c r="O18" s="92"/>
       <c r="P18" s="13"/>
       <c r="Q18" s="13"/>
       <c r="R18" s="13"/>
       <c r="S18" s="14"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="78" t="s">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="79"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
       <c r="H19" s="43"/>
       <c r="I19" s="41"/>
       <c r="J19" s="42"/>
       <c r="K19" s="44"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="70"/>
-      <c r="O19" s="70"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="85"/>
+      <c r="O19" s="85"/>
       <c r="P19" s="29"/>
       <c r="Q19" s="45"/>
       <c r="R19" s="45"/>
       <c r="S19" s="46"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="71" t="s">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
       <c r="H20" s="48"/>
       <c r="I20" s="49"/>
       <c r="J20" s="47"/>
       <c r="K20" s="50"/>
-      <c r="L20" s="74"/>
-      <c r="M20" s="74"/>
-      <c r="N20" s="74"/>
-      <c r="O20" s="74"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="89"/>
+      <c r="N20" s="89"/>
+      <c r="O20" s="89"/>
       <c r="P20" s="30"/>
       <c r="Q20" s="51"/>
       <c r="R20" s="51"/>
       <c r="S20" s="52"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="81" t="s">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="82"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
       <c r="H21" s="54"/>
       <c r="I21" s="55"/>
       <c r="J21" s="53"/>
       <c r="K21" s="54"/>
-      <c r="L21" s="84"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="84"/>
-      <c r="O21" s="84"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="70"/>
       <c r="P21" s="31"/>
       <c r="Q21" s="56"/>
       <c r="R21" s="56"/>
@@ -6491,6 +6491,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="L19:O19"/>
     <mergeCell ref="R16:S16"/>
     <mergeCell ref="L17:O17"/>
     <mergeCell ref="A1:Q1"/>
@@ -6504,18 +6516,6 @@
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="K16:O16"/>
     <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="L21:O21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{05C5FB07-DAAF-4D3A-A188-3C20404E79F4}"/>

--- a/Doo-Doc/Nueva Version Victus/Modelo dominio Enriquesido Reserva-VistusResidencias.xlsx
+++ b/Doo-Doc/Nueva Version Victus/Modelo dominio Enriquesido Reserva-VistusResidencias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\DOO 2024 BD\DOO\victus-doc\Doo-Doc\Nueva Version Victus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1CE107-2499-4A36-9F07-C31DE8406DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3AA343-0146-4207-9187-A0414FB140C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="4" xr2:uid="{CE244A66-670B-491B-9304-41B91E991E26}"/>
   </bookViews>
@@ -2868,6 +2868,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2876,9 +2879,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2981,9 +2981,14 @@
       <sheetName val="Publicación"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>ConjuntoResidencial</v>
+          </cell>
+        </row>
         <row r="4">
           <cell r="B4" t="str">
             <v>Objeto de dominio que representa a cada una de las zonas comunes que se encuentran dentro de un conjunto residencial para que los residentes puedan reservar esos espacios y porder usarlos.</v>
@@ -3006,12 +3011,12 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3032,7 +3037,13 @@
       <sheetName val="ConjuntoResidencial"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Referenciado</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="3">
@@ -4104,7 +4115,7 @@
       <c r="R18" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="S18" s="96"/>
+      <c r="S18" s="93"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="83"/>
@@ -4169,15 +4180,15 @@
       <c r="S20" s="14"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
       <c r="H21" s="43"/>
       <c r="I21" s="41"/>
       <c r="J21" s="42"/>
@@ -4898,7 +4909,7 @@
       <c r="R20" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="S20" s="96"/>
+      <c r="S20" s="93"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="83"/>
@@ -4963,15 +4974,15 @@
       <c r="S22" s="14"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="93" t="s">
+      <c r="A23" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="94"/>
-      <c r="C23" s="95"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
       <c r="H23" s="43"/>
       <c r="I23" s="41"/>
       <c r="J23" s="42"/>
@@ -5732,7 +5743,7 @@
       <c r="R20" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="S20" s="96"/>
+      <c r="S20" s="93"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="83"/>
@@ -5797,15 +5808,15 @@
       <c r="S22" s="14"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="93" t="s">
+      <c r="A23" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="94"/>
-      <c r="C23" s="95"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
       <c r="H23" s="43"/>
       <c r="I23" s="41"/>
       <c r="J23" s="42"/>
@@ -6356,7 +6367,7 @@
       <c r="R16" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="S16" s="96"/>
+      <c r="S16" s="93"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="83"/>
@@ -6421,15 +6432,15 @@
       <c r="S18" s="14"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="93" t="s">
+      <c r="A19" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="94"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
       <c r="H19" s="43"/>
       <c r="I19" s="41"/>
       <c r="J19" s="42"/>
